--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -583,7 +583,7 @@
         <v>Flatty</v>
       </c>
       <c r="D11" t="str">
-        <v>7777777</v>
+        <v>777777</v>
       </c>
       <c r="E11" t="str">
         <v>Zone 2</v>
